--- a/Brothers_AMS/TemplateFiles/ExportReports/AbsentDetails.xlsx
+++ b/Brothers_AMS/TemplateFiles/ExportReports/AbsentDetails.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chest\Desktop\Brothers_AMS\Brothers_AMS\TemplateFiles\ExportReports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\AMSgit\AttendanceManagement\Brothers_AMS\TemplateFiles\ExportReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE8D71-B45A-490D-B695-12CA1FED7A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C47D88F8-F1F2-4643-AA80-9B0D7E47E674}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AMSSheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,23 +407,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9580BF9F-7A18-407C-9158-0D0E4F17D5F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">

--- a/Brothers_AMS/TemplateFiles/ExportReports/AbsentDetails.xlsx
+++ b/Brothers_AMS/TemplateFiles/ExportReports/AbsentDetails.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\AMSgit\AttendanceManagement\Brothers_AMS\TemplateFiles\ExportReports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\ExportReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="AMSSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,6 +62,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +419,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -451,5 +454,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>